--- a/Data/Output/2022-06-06/Base Agenda/RSD.xlsx
+++ b/Data/Output/2022-06-06/Base Agenda/RSD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
   <x:si>
     <x:t>Paciente</x:t>
   </x:si>
@@ -55,144 +55,129 @@
     <x:t>Filial</x:t>
   </x:si>
   <x:si>
-    <x:t>686134 - MARCO AURELIO DE ALMEIDA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(24) 99818-6390</x:t>
-  </x:si>
-  <x:si>
-    <x:t>G2 - HELMI FERREIRA COSTA REIS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Segunda-Feira</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06/06/2022</x:t>
+    <x:t>1060824 - RAFAELA DE CARVALHO ALVES MOREIRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99845-6482</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G1 - JOSIMARA SOARES LEOPOLDINO ALMEIDA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Terça-Feira</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07/06/2022</x:t>
   </x:si>
   <x:si>
     <x:t>AINDA NÃO COMPARECEU</x:t>
   </x:si>
   <x:si>
+    <x:t>ADIMPLENTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CONTENÇÃO ACOMPANHAMENTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RSD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2325443 - MIGUEL LIMA DA COSTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99849-9099</x:t>
+  </x:si>
+  <x:si>
     <x:t>COB30</x:t>
   </x:si>
   <x:si>
     <x:t>TRATAMENTO</x:t>
   </x:si>
   <x:si>
+    <x:t>09:30:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">2418382 - CARLOS EDUARDO CARNEIRO </x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99869-3427</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2550230 - LUIS FELIPE INACIO OLIVEIRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99938-7801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12:30:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2478241 - MARCELA LEITE DE SOUZA ARAUJO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99946-6631</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2770784 - ADRIELE RAMOS DA SILVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99901-6765</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INSTALAÇÃO INFERIOR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15:30:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2770727 - DAIRTON CARLOS RAMOS GUIMARAES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 98104-1410</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2777888 - lucas da silva almeida</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99924-8018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INSTALAÇÃO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2618381 - SHIRLEI CRISTINA DIAS BARBOSA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99943-1907</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17:30:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2770348 - LEANDRO DA SILVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99846-5659</x:t>
+  </x:si>
+  <x:si>
     <x:t>17:45:00</x:t>
   </x:si>
   <x:si>
-    <x:t>RSD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1060824 - RAFAELA DE CARVALHO ALVES MOREIRA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(24) 99845-6482</x:t>
-  </x:si>
-  <x:si>
-    <x:t>G1 - JOSIMARA SOARES LEOPOLDINO ALMEIDA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Terça-Feira</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07/06/2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADIMPLENTE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CONTENÇÃO ACOMPANHAMENTO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:00:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2325443 - MIGUEL LIMA DA COSTA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(24) 99849-9099</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:30:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2418382 - CARLOS EDUARDO CARNEIRO </x:t>
-  </x:si>
-  <x:si>
-    <x:t>(24) 99869-3427</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11:00:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2550230 - LUIS FELIPE INACIO OLIVEIRA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(24) 99938-7801</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12:30:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2478241 - MARCELA LEITE DE SOUZA ARAUJO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(24) 99946-6631</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15:00:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2770784 - ADRIELE RAMOS DA SILVA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(24) 99901-6765</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INSTALAÇÃO INFERIOR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15:30:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2770727 - DAIRTON CARLOS RAMOS GUIMARAES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(24) 98104-1410</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16:00:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2777888 - lucas da silva almeida</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(24) 99924-8018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INSTALAÇÃO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17:00:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2618381 - SHIRLEI CRISTINA DIAS BARBOSA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(24) 99943-1907</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17:30:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2770348 - LEANDRO DA SILVA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(24) 99846-5659</x:t>
-  </x:si>
-  <x:si>
     <x:t>2550206 - VIVIANE GONCALVES SILVA DE OLIVEIRA</x:t>
   </x:si>
   <x:si>
@@ -526,6 +511,15 @@
     <x:t>(24) 99864-4697</x:t>
   </x:si>
   <x:si>
+    <x:t>2596716 - JAQUES ALVES DA CONCEICAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99854-3571</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11:30:00</x:t>
+  </x:si>
+  <x:si>
     <x:t>2797031 - ANA CLARA AVELAR DE SOUSA</x:t>
   </x:si>
   <x:si>
@@ -604,21 +598,15 @@
     <x:t>(24) 99858-2218</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">1446154 - STEPHANY JULIANE DE SOUZA DA SILVA </x:t>
-  </x:si>
-  <x:si>
-    <x:t>(24) 99868-8446</x:t>
+    <x:t>298526 - OSMAR FERNANDO DE PAIVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(24) 99250-2864</x:t>
   </x:si>
   <x:si>
     <x:t>G2 - TACIANA BARCELLOS CARVALHEIRA RIBAS</x:t>
   </x:si>
   <x:si>
-    <x:t>298526 - OSMAR FERNANDO DE PAIVA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(24) 99250-2864</x:t>
-  </x:si>
-  <x:si>
     <x:t>2600956 - AIRTON CESAR VERGINO DE ALMEIDA</x:t>
   </x:si>
   <x:si>
@@ -653,9 +641,6 @@
   </x:si>
   <x:si>
     <x:t>(24) 99962-1245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11:30:00</x:t>
   </x:si>
   <x:si>
     <x:t>2491267 - HUDSON SILVA BARBOZA</x:t>
@@ -1232,7 +1217,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>11766</x:v>
+        <x:v>7696</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
         <x:v>14</x:v>
@@ -1267,31 +1252,31 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>7696</x:v>
+        <x:v>11495</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
+      <x:c r="I3" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="s">
-        <x:v>30</x:v>
       </x:c>
       <x:c r="M3" s="0" t="s">
         <x:v>22</x:v>
@@ -1299,22 +1284,22 @@
     </x:row>
     <x:row r="4" spans="1:13">
       <x:c r="A4" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
-        <x:v>11495</x:v>
+        <x:v>11986</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
         <x:v>18</x:v>
@@ -1323,10 +1308,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M4" s="0" t="s">
         <x:v>22</x:v>
@@ -1334,34 +1319,34 @@
     </x:row>
     <x:row r="5" spans="1:13">
       <x:c r="A5" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
-        <x:v>11986</x:v>
+        <x:v>12935</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M5" s="0" t="s">
         <x:v>22</x:v>
@@ -1369,34 +1354,34 @@
     </x:row>
     <x:row r="6" spans="1:13">
       <x:c r="A6" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B6" s="0" t="n">
-        <x:v>12935</x:v>
+        <x:v>12359</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J6" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="M6" s="0" t="s">
         <x:v>22</x:v>
@@ -1404,34 +1389,34 @@
     </x:row>
     <x:row r="7" spans="1:13">
       <x:c r="A7" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="n">
+        <x:v>14057</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
         <x:v>40</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="n">
-        <x:v>12359</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J7" s="0" t="s">
-        <x:v>42</x:v>
       </x:c>
       <x:c r="M7" s="0" t="s">
         <x:v>22</x:v>
@@ -1439,34 +1424,34 @@
     </x:row>
     <x:row r="8" spans="1:13">
       <x:c r="A8" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="n">
+        <x:v>14056</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
         <x:v>43</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="n">
-        <x:v>14057</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I8" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="J8" s="0" t="s">
-        <x:v>46</x:v>
       </x:c>
       <x:c r="M8" s="0" t="s">
         <x:v>22</x:v>
@@ -1474,34 +1459,34 @@
     </x:row>
     <x:row r="9" spans="1:13">
       <x:c r="A9" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="n">
+        <x:v>14106</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
         <x:v>47</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="n">
-        <x:v>14056</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="J9" s="0" t="s">
-        <x:v>49</x:v>
       </x:c>
       <x:c r="M9" s="0" t="s">
         <x:v>22</x:v>
@@ -1509,34 +1494,34 @@
     </x:row>
     <x:row r="10" spans="1:13">
       <x:c r="A10" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="n">
+        <x:v>13408</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
         <x:v>50</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="n">
-        <x:v>14106</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="J10" s="0" t="s">
-        <x:v>53</x:v>
       </x:c>
       <x:c r="M10" s="0" t="s">
         <x:v>22</x:v>
@@ -1544,34 +1529,34 @@
     </x:row>
     <x:row r="11" spans="1:13">
       <x:c r="A11" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B11" s="0" t="n">
-        <x:v>13408</x:v>
+        <x:v>14055</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M11" s="0" t="s">
         <x:v>22</x:v>
@@ -1579,34 +1564,34 @@
     </x:row>
     <x:row r="12" spans="1:13">
       <x:c r="A12" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B12" s="0" t="n">
-        <x:v>14055</x:v>
+        <x:v>12937</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J12" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="M12" s="0" t="s">
         <x:v>22</x:v>
@@ -1614,34 +1599,34 @@
     </x:row>
     <x:row r="13" spans="1:13">
       <x:c r="A13" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B13" s="0" t="n">
-        <x:v>12937</x:v>
+        <x:v>7702</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="M13" s="0" t="s">
         <x:v>22</x:v>
@@ -1649,34 +1634,34 @@
     </x:row>
     <x:row r="14" spans="1:13">
       <x:c r="A14" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="n">
+        <x:v>11253</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="n">
-        <x:v>7702</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
+      <x:c r="E14" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
         <x:v>63</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I14" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="J14" s="0" t="s">
-        <x:v>64</x:v>
       </x:c>
       <x:c r="M14" s="0" t="s">
         <x:v>22</x:v>
@@ -1684,34 +1669,34 @@
     </x:row>
     <x:row r="15" spans="1:13">
       <x:c r="A15" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="n">
+        <x:v>13861</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="n">
-        <x:v>11253</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J15" s="0" t="s">
-        <x:v>68</x:v>
       </x:c>
       <x:c r="M15" s="0" t="s">
         <x:v>22</x:v>
@@ -1719,34 +1704,34 @@
     </x:row>
     <x:row r="16" spans="1:13">
       <x:c r="A16" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B16" s="0" t="n">
-        <x:v>13861</x:v>
+        <x:v>12739</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J16" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="M16" s="0" t="s">
         <x:v>22</x:v>
@@ -1754,34 +1739,34 @@
     </x:row>
     <x:row r="17" spans="1:13">
       <x:c r="A17" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="n">
+        <x:v>6229</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
         <x:v>71</x:v>
-      </x:c>
-      <x:c r="B17" s="0" t="n">
-        <x:v>12739</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I17" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J17" s="0" t="s">
-        <x:v>73</x:v>
       </x:c>
       <x:c r="M17" s="0" t="s">
         <x:v>22</x:v>
@@ -1789,34 +1774,34 @@
     </x:row>
     <x:row r="18" spans="1:13">
       <x:c r="A18" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="n">
+        <x:v>12757</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J18" s="0" t="s">
         <x:v>74</x:v>
-      </x:c>
-      <x:c r="B18" s="0" t="n">
-        <x:v>6229</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E18" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I18" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J18" s="0" t="s">
-        <x:v>76</x:v>
       </x:c>
       <x:c r="M18" s="0" t="s">
         <x:v>22</x:v>
@@ -1824,34 +1809,34 @@
     </x:row>
     <x:row r="19" spans="1:13">
       <x:c r="A19" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B19" s="0" t="n">
-        <x:v>12757</x:v>
+        <x:v>13326</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J19" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M19" s="0" t="s">
         <x:v>22</x:v>
@@ -1859,22 +1844,22 @@
     </x:row>
     <x:row r="20" spans="1:13">
       <x:c r="A20" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B20" s="0" t="n">
-        <x:v>13326</x:v>
+        <x:v>13053</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
         <x:v>18</x:v>
@@ -1883,10 +1868,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J20" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="M20" s="0" t="s">
         <x:v>22</x:v>
@@ -1894,34 +1879,34 @@
     </x:row>
     <x:row r="21" spans="1:13">
       <x:c r="A21" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="n">
+        <x:v>13330</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J21" s="0" t="s">
         <x:v>82</x:v>
-      </x:c>
-      <x:c r="B21" s="0" t="n">
-        <x:v>13053</x:v>
-      </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E21" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F21" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G21" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I21" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J21" s="0" t="s">
-        <x:v>84</x:v>
       </x:c>
       <x:c r="M21" s="0" t="s">
         <x:v>22</x:v>
@@ -1929,34 +1914,31 @@
     </x:row>
     <x:row r="22" spans="1:13">
       <x:c r="A22" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="n">
+        <x:v>4647</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="B22" s="0" t="n">
-        <x:v>13330</x:v>
-      </x:c>
-      <x:c r="C22" s="0" t="s">
+      <x:c r="J22" s="0" t="s">
         <x:v>86</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E22" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F22" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G22" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I22" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J22" s="0" t="s">
-        <x:v>87</x:v>
       </x:c>
       <x:c r="M22" s="0" t="s">
         <x:v>22</x:v>
@@ -1964,31 +1946,34 @@
     </x:row>
     <x:row r="23" spans="1:13">
       <x:c r="A23" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="n">
+        <x:v>13771</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="B23" s="0" t="n">
-        <x:v>4647</x:v>
-      </x:c>
-      <x:c r="C23" s="0" t="s">
+      <x:c r="D23" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J23" s="0" t="s">
         <x:v>89</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E23" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F23" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G23" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="I23" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="J23" s="0" t="s">
-        <x:v>91</x:v>
       </x:c>
       <x:c r="M23" s="0" t="s">
         <x:v>22</x:v>
@@ -1996,34 +1981,34 @@
     </x:row>
     <x:row r="24" spans="1:13">
       <x:c r="A24" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="n">
+        <x:v>13949</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J24" s="0" t="s">
         <x:v>92</x:v>
-      </x:c>
-      <x:c r="B24" s="0" t="n">
-        <x:v>13771</x:v>
-      </x:c>
-      <x:c r="C24" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E24" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F24" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G24" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H24" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I24" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J24" s="0" t="s">
-        <x:v>94</x:v>
       </x:c>
       <x:c r="M24" s="0" t="s">
         <x:v>22</x:v>
@@ -2031,34 +2016,34 @@
     </x:row>
     <x:row r="25" spans="1:13">
       <x:c r="A25" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="n">
+        <x:v>13865</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J25" s="0" t="s">
         <x:v>95</x:v>
-      </x:c>
-      <x:c r="B25" s="0" t="n">
-        <x:v>13949</x:v>
-      </x:c>
-      <x:c r="C25" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D25" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E25" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F25" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G25" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H25" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I25" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J25" s="0" t="s">
-        <x:v>97</x:v>
       </x:c>
       <x:c r="M25" s="0" t="s">
         <x:v>22</x:v>
@@ -2066,34 +2051,34 @@
     </x:row>
     <x:row r="26" spans="1:13">
       <x:c r="A26" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B26" s="0" t="n">
-        <x:v>13865</x:v>
+        <x:v>13866</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H26" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J26" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="M26" s="0" t="s">
         <x:v>22</x:v>
@@ -2101,34 +2086,34 @@
     </x:row>
     <x:row r="27" spans="1:13">
       <x:c r="A27" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B27" s="0" t="n">
-        <x:v>13866</x:v>
+        <x:v>10037</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H27" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="J27" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="M27" s="0" t="s">
         <x:v>22</x:v>
@@ -2136,31 +2121,31 @@
     </x:row>
     <x:row r="28" spans="1:13">
       <x:c r="A28" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B28" s="0" t="n">
-        <x:v>10037</x:v>
+        <x:v>12495</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H28" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J28" s="0" t="s">
         <x:v>53</x:v>
@@ -2171,34 +2156,34 @@
     </x:row>
     <x:row r="29" spans="1:13">
       <x:c r="A29" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B29" s="0" t="n">
-        <x:v>12495</x:v>
+        <x:v>13463</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H29" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J29" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="M29" s="0" t="s">
         <x:v>22</x:v>
@@ -2206,34 +2191,34 @@
     </x:row>
     <x:row r="30" spans="1:13">
       <x:c r="A30" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B30" s="0" t="n">
-        <x:v>13463</x:v>
+        <x:v>12936</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H30" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J30" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="M30" s="0" t="s">
         <x:v>22</x:v>
@@ -2241,34 +2226,34 @@
     </x:row>
     <x:row r="31" spans="1:13">
       <x:c r="A31" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B31" s="0" t="n">
-        <x:v>12936</x:v>
+        <x:v>13933</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H31" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I31" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J31" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M31" s="0" t="s">
         <x:v>22</x:v>
@@ -2276,34 +2261,34 @@
     </x:row>
     <x:row r="32" spans="1:13">
       <x:c r="A32" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B32" s="0" t="n">
-        <x:v>13933</x:v>
+        <x:v>5763</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H32" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J32" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="M32" s="0" t="s">
         <x:v>22</x:v>
@@ -2311,34 +2296,34 @@
     </x:row>
     <x:row r="33" spans="1:13">
       <x:c r="A33" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B33" s="0" t="n">
-        <x:v>5763</x:v>
+        <x:v>12830</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H33" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J33" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="M33" s="0" t="s">
         <x:v>22</x:v>
@@ -2346,34 +2331,34 @@
     </x:row>
     <x:row r="34" spans="1:13">
       <x:c r="A34" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="n">
+        <x:v>12356</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="B34" s="0" t="n">
-        <x:v>12830</x:v>
-      </x:c>
-      <x:c r="C34" s="0" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="D34" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="E34" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F34" s="0" t="s">
+      <x:c r="J34" s="0" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="G34" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H34" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I34" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J34" s="0" t="s">
-        <x:v>30</x:v>
       </x:c>
       <x:c r="M34" s="0" t="s">
         <x:v>22</x:v>
@@ -2381,34 +2366,34 @@
     </x:row>
     <x:row r="35" spans="1:13">
       <x:c r="A35" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="n">
+        <x:v>4085</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="B35" s="0" t="n">
-        <x:v>12356</x:v>
-      </x:c>
-      <x:c r="C35" s="0" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="D35" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="E35" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F35" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G35" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H35" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I35" s="0" t="s">
-        <x:v>120</x:v>
-      </x:c>
       <x:c r="J35" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="M35" s="0" t="s">
         <x:v>22</x:v>
@@ -2416,34 +2401,34 @@
     </x:row>
     <x:row r="36" spans="1:13">
       <x:c r="A36" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B36" s="0" t="n">
-        <x:v>4085</x:v>
+        <x:v>13565</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H36" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I36" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J36" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="M36" s="0" t="s">
         <x:v>22</x:v>
@@ -2451,34 +2436,34 @@
     </x:row>
     <x:row r="37" spans="1:13">
       <x:c r="A37" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B37" s="0" t="n">
-        <x:v>13565</x:v>
+        <x:v>12169</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H37" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I37" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J37" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="M37" s="0" t="s">
         <x:v>22</x:v>
@@ -2486,34 +2471,34 @@
     </x:row>
     <x:row r="38" spans="1:13">
       <x:c r="A38" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B38" s="0" t="n">
-        <x:v>12169</x:v>
+        <x:v>9779</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G38" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H38" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I38" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J38" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="M38" s="0" t="s">
         <x:v>22</x:v>
@@ -2521,34 +2506,34 @@
     </x:row>
     <x:row r="39" spans="1:13">
       <x:c r="A39" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B39" s="0" t="n">
-        <x:v>9779</x:v>
+        <x:v>13498</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H39" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I39" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J39" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="M39" s="0" t="s">
         <x:v>22</x:v>
@@ -2556,34 +2541,34 @@
     </x:row>
     <x:row r="40" spans="1:13">
       <x:c r="A40" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B40" s="0" t="n">
-        <x:v>13498</x:v>
+        <x:v>11366</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H40" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I40" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J40" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="M40" s="0" t="s">
         <x:v>22</x:v>
@@ -2591,34 +2576,34 @@
     </x:row>
     <x:row r="41" spans="1:13">
       <x:c r="A41" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B41" s="0" t="n">
-        <x:v>11366</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F41" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H41" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I41" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J41" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="M41" s="0" t="s">
         <x:v>22</x:v>
@@ -2626,34 +2611,34 @@
     </x:row>
     <x:row r="42" spans="1:13">
       <x:c r="A42" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B42" s="0" t="n">
-        <x:v>622</x:v>
+        <x:v>11286</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J42" s="0" t="s">
         <x:v>133</x:v>
-      </x:c>
-      <x:c r="E42" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F42" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G42" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H42" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I42" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J42" s="0" t="s">
-        <x:v>76</x:v>
       </x:c>
       <x:c r="M42" s="0" t="s">
         <x:v>22</x:v>
@@ -2661,34 +2646,34 @@
     </x:row>
     <x:row r="43" spans="1:13">
       <x:c r="A43" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B43" s="0" t="n">
-        <x:v>11286</x:v>
+        <x:v>13661</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H43" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I43" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J43" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="M43" s="0" t="s">
         <x:v>22</x:v>
@@ -2696,34 +2681,34 @@
     </x:row>
     <x:row r="44" spans="1:13">
       <x:c r="A44" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B44" s="0" t="n">
-        <x:v>13661</x:v>
+        <x:v>9444</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H44" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J44" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="M44" s="0" t="s">
         <x:v>22</x:v>
@@ -2731,34 +2716,34 @@
     </x:row>
     <x:row r="45" spans="1:13">
       <x:c r="A45" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B45" s="0" t="n">
-        <x:v>9444</x:v>
+        <x:v>12430</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G45" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H45" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I45" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J45" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="M45" s="0" t="s">
         <x:v>22</x:v>
@@ -2766,34 +2751,34 @@
     </x:row>
     <x:row r="46" spans="1:13">
       <x:c r="A46" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B46" s="0" t="n">
-        <x:v>12430</x:v>
+        <x:v>9331</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H46" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J46" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="M46" s="0" t="s">
         <x:v>22</x:v>
@@ -2801,34 +2786,34 @@
     </x:row>
     <x:row r="47" spans="1:13">
       <x:c r="A47" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B47" s="0" t="n">
-        <x:v>9331</x:v>
+        <x:v>12570</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H47" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I47" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J47" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="M47" s="0" t="s">
         <x:v>22</x:v>
@@ -2836,34 +2821,34 @@
     </x:row>
     <x:row r="48" spans="1:13">
       <x:c r="A48" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B48" s="0" t="n">
-        <x:v>12570</x:v>
+        <x:v>6518</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H48" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I48" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J48" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M48" s="0" t="s">
         <x:v>22</x:v>
@@ -2871,34 +2856,34 @@
     </x:row>
     <x:row r="49" spans="1:13">
       <x:c r="A49" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B49" s="0" t="n">
-        <x:v>6518</x:v>
+        <x:v>12554</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H49" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I49" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J49" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="M49" s="0" t="s">
         <x:v>22</x:v>
@@ -2906,34 +2891,34 @@
     </x:row>
     <x:row r="50" spans="1:13">
       <x:c r="A50" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="n">
+        <x:v>13829</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="J50" s="0" t="s">
         <x:v>152</x:v>
-      </x:c>
-      <x:c r="B50" s="0" t="n">
-        <x:v>12554</x:v>
-      </x:c>
-      <x:c r="C50" s="0" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="D50" s="0" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="E50" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F50" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G50" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H50" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I50" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J50" s="0" t="s">
-        <x:v>108</x:v>
       </x:c>
       <x:c r="M50" s="0" t="s">
         <x:v>22</x:v>
@@ -2941,34 +2926,34 @@
     </x:row>
     <x:row r="51" spans="1:13">
       <x:c r="A51" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="n">
+        <x:v>11602</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="B51" s="0" t="n">
-        <x:v>13829</x:v>
-      </x:c>
-      <x:c r="C51" s="0" t="s">
-        <x:v>155</x:v>
-      </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H51" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J51" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="M51" s="0" t="s">
         <x:v>22</x:v>
@@ -2976,34 +2961,34 @@
     </x:row>
     <x:row r="52" spans="1:13">
       <x:c r="A52" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B52" s="0" t="n">
-        <x:v>11602</x:v>
+        <x:v>10660</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F52" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H52" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I52" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J52" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M52" s="0" t="s">
         <x:v>22</x:v>
@@ -3011,34 +2996,34 @@
     </x:row>
     <x:row r="53" spans="1:13">
       <x:c r="A53" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B53" s="0" t="n">
-        <x:v>10660</x:v>
+        <x:v>13948</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F53" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G53" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H53" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I53" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J53" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="M53" s="0" t="s">
         <x:v>22</x:v>
@@ -3046,34 +3031,34 @@
     </x:row>
     <x:row r="54" spans="1:13">
       <x:c r="A54" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B54" s="0" t="n">
-        <x:v>13948</x:v>
+        <x:v>8158</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="J54" s="0" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="G54" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H54" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I54" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J54" s="0" t="s">
-        <x:v>68</x:v>
       </x:c>
       <x:c r="M54" s="0" t="s">
         <x:v>22</x:v>
@@ -3081,34 +3066,34 @@
     </x:row>
     <x:row r="55" spans="1:13">
       <x:c r="A55" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B55" s="0" t="n">
-        <x:v>8158</x:v>
+        <x:v>14104</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F55" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G55" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H55" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I55" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J55" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="M55" s="0" t="s">
         <x:v>22</x:v>
@@ -3116,34 +3101,34 @@
     </x:row>
     <x:row r="56" spans="1:13">
       <x:c r="A56" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B56" s="0" t="n">
-        <x:v>14104</x:v>
+        <x:v>13946</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H56" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I56" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J56" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M56" s="0" t="s">
         <x:v>22</x:v>
@@ -3151,34 +3136,31 @@
     </x:row>
     <x:row r="57" spans="1:13">
       <x:c r="A57" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B57" s="0" t="n">
-        <x:v>13946</x:v>
+        <x:v>13296</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F57" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="H57" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="I57" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="J57" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="M57" s="0" t="s">
         <x:v>22</x:v>
@@ -3186,31 +3168,31 @@
     </x:row>
     <x:row r="58" spans="1:13">
       <x:c r="A58" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H58" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="M58" s="0" t="s">
         <x:v>22</x:v>
@@ -3218,34 +3200,34 @@
     </x:row>
     <x:row r="59" spans="1:13">
       <x:c r="A59" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B59" s="0" t="n">
         <x:v>14098</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F59" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G59" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H59" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I59" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J59" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="M59" s="0" t="s">
         <x:v>22</x:v>
@@ -3253,34 +3235,34 @@
     </x:row>
     <x:row r="60" spans="1:13">
       <x:c r="A60" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B60" s="0" t="n">
         <x:v>13936</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H60" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I60" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J60" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="M60" s="0" t="s">
         <x:v>22</x:v>
@@ -3288,34 +3270,34 @@
     </x:row>
     <x:row r="61" spans="1:13">
       <x:c r="A61" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B61" s="0" t="n">
         <x:v>13557</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F61" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G61" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H61" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I61" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J61" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="M61" s="0" t="s">
         <x:v>22</x:v>
@@ -3323,34 +3305,34 @@
     </x:row>
     <x:row r="62" spans="1:13">
       <x:c r="A62" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B62" s="0" t="n">
         <x:v>9194</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G62" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H62" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I62" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J62" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="M62" s="0" t="s">
         <x:v>22</x:v>
@@ -3358,34 +3340,34 @@
     </x:row>
     <x:row r="63" spans="1:13">
       <x:c r="A63" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B63" s="0" t="n">
         <x:v>13728</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F63" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G63" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H63" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I63" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J63" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="M63" s="0" t="s">
         <x:v>22</x:v>
@@ -3393,34 +3375,34 @@
     </x:row>
     <x:row r="64" spans="1:13">
       <x:c r="A64" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B64" s="0" t="n">
         <x:v>13712</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F64" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G64" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H64" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J64" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="M64" s="0" t="s">
         <x:v>22</x:v>
@@ -3428,34 +3410,34 @@
     </x:row>
     <x:row r="65" spans="1:13">
       <x:c r="A65" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B65" s="0" t="n">
         <x:v>14142</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H65" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I65" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J65" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="M65" s="0" t="s">
         <x:v>22</x:v>
@@ -3463,34 +3445,34 @@
     </x:row>
     <x:row r="66" spans="1:13">
       <x:c r="A66" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B66" s="0" t="n">
         <x:v>12107</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E66" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F66" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G66" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H66" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I66" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J66" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M66" s="0" t="s">
         <x:v>22</x:v>
@@ -3498,34 +3480,34 @@
     </x:row>
     <x:row r="67" spans="1:13">
       <x:c r="A67" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B67" s="0" t="n">
         <x:v>13476</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F67" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G67" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H67" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J67" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M67" s="0" t="s">
         <x:v>22</x:v>
@@ -3533,34 +3515,34 @@
     </x:row>
     <x:row r="68" spans="1:13">
       <x:c r="A68" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B68" s="0" t="n">
         <x:v>2226</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H68" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I68" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J68" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="M68" s="0" t="s">
         <x:v>22</x:v>
@@ -3568,34 +3550,34 @@
     </x:row>
     <x:row r="69" spans="1:13">
       <x:c r="A69" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B69" s="0" t="n">
         <x:v>14018</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F69" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G69" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H69" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I69" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J69" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="M69" s="0" t="s">
         <x:v>22</x:v>
@@ -3603,34 +3585,34 @@
     </x:row>
     <x:row r="70" spans="1:13">
       <x:c r="A70" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B70" s="0" t="n">
         <x:v>8073</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E70" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F70" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G70" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H70" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I70" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J70" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M70" s="0" t="s">
         <x:v>22</x:v>
@@ -3638,34 +3620,34 @@
     </x:row>
     <x:row r="71" spans="1:13">
       <x:c r="A71" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="n">
+        <x:v>2756</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="s">
         <x:v>196</x:v>
       </x:c>
-      <x:c r="B71" s="0" t="n">
-        <x:v>7711</x:v>
-      </x:c>
-      <x:c r="C71" s="0" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="D71" s="0" t="s">
-        <x:v>198</x:v>
-      </x:c>
       <x:c r="E71" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F71" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G71" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H71" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I71" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J71" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="M71" s="0" t="s">
         <x:v>22</x:v>
@@ -3673,34 +3655,34 @@
     </x:row>
     <x:row r="72" spans="1:13">
       <x:c r="A72" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B72" s="0" t="n">
-        <x:v>2756</x:v>
+        <x:v>13324</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F72" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G72" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H72" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I72" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J72" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="M72" s="0" t="s">
         <x:v>22</x:v>
@@ -3708,34 +3690,34 @@
     </x:row>
     <x:row r="73" spans="1:13">
       <x:c r="A73" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="n">
+        <x:v>13957</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D73" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="E73" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F73" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G73" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H73" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I73" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J73" s="0" t="s">
         <x:v>201</x:v>
-      </x:c>
-      <x:c r="B73" s="0" t="n">
-        <x:v>13324</x:v>
-      </x:c>
-      <x:c r="C73" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-      <x:c r="D73" s="0" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="E73" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F73" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G73" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H73" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I73" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J73" s="0" t="s">
-        <x:v>79</x:v>
       </x:c>
       <x:c r="M73" s="0" t="s">
         <x:v>22</x:v>
@@ -3743,34 +3725,34 @@
     </x:row>
     <x:row r="74" spans="1:13">
       <x:c r="A74" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="n">
+        <x:v>13761</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="s">
         <x:v>203</x:v>
       </x:c>
-      <x:c r="B74" s="0" t="n">
-        <x:v>13957</x:v>
-      </x:c>
-      <x:c r="C74" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F74" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G74" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H74" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I74" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J74" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M74" s="0" t="s">
         <x:v>22</x:v>
@@ -3778,34 +3760,34 @@
     </x:row>
     <x:row r="75" spans="1:13">
       <x:c r="A75" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="n">
+        <x:v>13784</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="E75" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F75" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G75" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H75" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I75" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J75" s="0" t="s">
         <x:v>206</x:v>
-      </x:c>
-      <x:c r="B75" s="0" t="n">
-        <x:v>13761</x:v>
-      </x:c>
-      <x:c r="C75" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-      <x:c r="D75" s="0" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="E75" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F75" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G75" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H75" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I75" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J75" s="0" t="s">
-        <x:v>36</x:v>
       </x:c>
       <x:c r="M75" s="0" t="s">
         <x:v>22</x:v>
@@ -3813,34 +3795,34 @@
     </x:row>
     <x:row r="76" spans="1:13">
       <x:c r="A76" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="n">
+        <x:v>853</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="s">
         <x:v>208</x:v>
       </x:c>
-      <x:c r="B76" s="0" t="n">
-        <x:v>13784</x:v>
-      </x:c>
-      <x:c r="C76" s="0" t="s">
-        <x:v>209</x:v>
-      </x:c>
       <x:c r="D76" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H76" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I76" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J76" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="M76" s="0" t="s">
         <x:v>22</x:v>
@@ -3848,34 +3830,34 @@
     </x:row>
     <x:row r="77" spans="1:13">
       <x:c r="A77" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="n">
+        <x:v>12444</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="E77" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F77" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G77" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H77" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I77" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J77" s="0" t="s">
         <x:v>211</x:v>
-      </x:c>
-      <x:c r="B77" s="0" t="n">
-        <x:v>853</x:v>
-      </x:c>
-      <x:c r="C77" s="0" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="D77" s="0" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="E77" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F77" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G77" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H77" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I77" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J77" s="0" t="s">
-        <x:v>213</x:v>
       </x:c>
       <x:c r="M77" s="0" t="s">
         <x:v>22</x:v>
@@ -3883,34 +3865,34 @@
     </x:row>
     <x:row r="78" spans="1:13">
       <x:c r="A78" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B78" s="0" t="n">
-        <x:v>12444</x:v>
+        <x:v>13604</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F78" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G78" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H78" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I78" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J78" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="M78" s="0" t="s">
         <x:v>22</x:v>
@@ -3918,34 +3900,34 @@
     </x:row>
     <x:row r="79" spans="1:13">
       <x:c r="A79" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B79" s="0" t="n">
-        <x:v>13604</x:v>
+        <x:v>9513</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E79" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F79" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G79" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H79" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I79" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="J79" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="M79" s="0" t="s">
         <x:v>22</x:v>
@@ -3953,34 +3935,34 @@
     </x:row>
     <x:row r="80" spans="1:13">
       <x:c r="A80" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="n">
+        <x:v>4628</x:v>
+      </x:c>
+      <x:c r="C80" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="D80" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="E80" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F80" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G80" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H80" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I80" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J80" s="0" t="s">
         <x:v>219</x:v>
-      </x:c>
-      <x:c r="B80" s="0" t="n">
-        <x:v>9513</x:v>
-      </x:c>
-      <x:c r="C80" s="0" t="s">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="D80" s="0" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="E80" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F80" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G80" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H80" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I80" s="0" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="J80" s="0" t="s">
-        <x:v>221</x:v>
       </x:c>
       <x:c r="M80" s="0" t="s">
         <x:v>22</x:v>
@@ -3988,34 +3970,34 @@
     </x:row>
     <x:row r="81" spans="1:13">
       <x:c r="A81" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="n">
+        <x:v>13828</x:v>
+      </x:c>
+      <x:c r="C81" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="D81" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="E81" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F81" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G81" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H81" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I81" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J81" s="0" t="s">
         <x:v>222</x:v>
-      </x:c>
-      <x:c r="B81" s="0" t="n">
-        <x:v>4628</x:v>
-      </x:c>
-      <x:c r="C81" s="0" t="s">
-        <x:v>223</x:v>
-      </x:c>
-      <x:c r="D81" s="0" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="E81" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F81" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G81" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H81" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I81" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J81" s="0" t="s">
-        <x:v>224</x:v>
       </x:c>
       <x:c r="M81" s="0" t="s">
         <x:v>22</x:v>
@@ -4023,34 +4005,34 @@
     </x:row>
     <x:row r="82" spans="1:13">
       <x:c r="A82" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B82" s="0" t="n">
-        <x:v>13828</x:v>
+        <x:v>11120</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D82" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E82" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F82" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G82" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H82" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I82" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J82" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="M82" s="0" t="s">
         <x:v>22</x:v>
@@ -4058,34 +4040,34 @@
     </x:row>
     <x:row r="83" spans="1:13">
       <x:c r="A83" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B83" s="0" t="n">
-        <x:v>11120</x:v>
+        <x:v>12394</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E83" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F83" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G83" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H83" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I83" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J83" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="M83" s="0" t="s">
         <x:v>22</x:v>
@@ -4093,34 +4075,34 @@
     </x:row>
     <x:row r="84" spans="1:13">
       <x:c r="A84" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B84" s="0" t="n">
-        <x:v>12394</x:v>
+        <x:v>11623</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F84" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G84" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H84" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I84" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J84" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="M84" s="0" t="s">
         <x:v>22</x:v>
@@ -4128,34 +4110,34 @@
     </x:row>
     <x:row r="85" spans="1:13">
       <x:c r="A85" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B85" s="0" t="n">
-        <x:v>11623</x:v>
+        <x:v>4409</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D85" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E85" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F85" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G85" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H85" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I85" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J85" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="M85" s="0" t="s">
         <x:v>22</x:v>
@@ -4163,34 +4145,34 @@
     </x:row>
     <x:row r="86" spans="1:13">
       <x:c r="A86" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B86" s="0" t="n">
-        <x:v>4409</x:v>
+        <x:v>13888</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E86" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F86" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G86" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H86" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I86" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J86" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="M86" s="0" t="s">
         <x:v>22</x:v>
@@ -4198,22 +4180,22 @@
     </x:row>
     <x:row r="87" spans="1:13">
       <x:c r="A87" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B87" s="0" t="n">
-        <x:v>13888</x:v>
+        <x:v>13343</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="D87" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E87" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F87" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G87" s="0" t="s">
         <x:v>18</x:v>
@@ -4222,10 +4204,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="I87" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J87" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="M87" s="0" t="s">
         <x:v>22</x:v>
@@ -4233,34 +4215,34 @@
     </x:row>
     <x:row r="88" spans="1:13">
       <x:c r="A88" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B88" s="0" t="n">
-        <x:v>13343</x:v>
+        <x:v>11956</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D88" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F88" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G88" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H88" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I88" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J88" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="M88" s="0" t="s">
         <x:v>22</x:v>
@@ -4268,34 +4250,34 @@
     </x:row>
     <x:row r="89" spans="1:13">
       <x:c r="A89" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B89" s="0" t="n">
-        <x:v>11956</x:v>
+        <x:v>8243</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D89" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E89" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F89" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G89" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H89" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I89" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J89" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="M89" s="0" t="s">
         <x:v>22</x:v>
@@ -4303,34 +4285,34 @@
     </x:row>
     <x:row r="90" spans="1:13">
       <x:c r="A90" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B90" s="0" t="n">
-        <x:v>8243</x:v>
+        <x:v>13763</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D90" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E90" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F90" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G90" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H90" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I90" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J90" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="M90" s="0" t="s">
         <x:v>22</x:v>
@@ -4338,34 +4320,34 @@
     </x:row>
     <x:row r="91" spans="1:13">
       <x:c r="A91" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B91" s="0" t="n">
-        <x:v>13763</x:v>
+        <x:v>11885</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D91" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E91" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F91" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G91" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H91" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="I91" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J91" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="M91" s="0" t="s">
         <x:v>22</x:v>
@@ -4373,34 +4355,34 @@
     </x:row>
     <x:row r="92" spans="1:13">
       <x:c r="A92" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="n">
+        <x:v>12165</x:v>
+      </x:c>
+      <x:c r="C92" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="D92" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="E92" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F92" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G92" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H92" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I92" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J92" s="0" t="s">
         <x:v>247</x:v>
-      </x:c>
-      <x:c r="B92" s="0" t="n">
-        <x:v>11885</x:v>
-      </x:c>
-      <x:c r="C92" s="0" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="D92" s="0" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="E92" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F92" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G92" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H92" s="0" t="s">
-        <x:v>249</x:v>
-      </x:c>
-      <x:c r="I92" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J92" s="0" t="s">
-        <x:v>149</x:v>
       </x:c>
       <x:c r="M92" s="0" t="s">
         <x:v>22</x:v>
@@ -4408,34 +4390,34 @@
     </x:row>
     <x:row r="93" spans="1:13">
       <x:c r="A93" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B93" s="0" t="n">
-        <x:v>12165</x:v>
+        <x:v>8097</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F93" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G93" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H93" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I93" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J93" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="M93" s="0" t="s">
         <x:v>22</x:v>
@@ -4443,34 +4425,34 @@
     </x:row>
     <x:row r="94" spans="1:13">
       <x:c r="A94" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B94" s="0" t="n">
-        <x:v>8097</x:v>
+        <x:v>7933</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F94" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G94" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H94" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I94" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J94" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="M94" s="0" t="s">
         <x:v>22</x:v>
@@ -4478,34 +4460,34 @@
     </x:row>
     <x:row r="95" spans="1:13">
       <x:c r="A95" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B95" s="0" t="n">
-        <x:v>7933</x:v>
+        <x:v>11669</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E95" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F95" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G95" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H95" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I95" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J95" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M95" s="0" t="s">
         <x:v>22</x:v>
@@ -4513,34 +4495,34 @@
     </x:row>
     <x:row r="96" spans="1:13">
       <x:c r="A96" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B96" s="0" t="n">
-        <x:v>11669</x:v>
+        <x:v>13342</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="D96" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E96" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F96" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G96" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H96" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I96" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J96" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M96" s="0" t="s">
         <x:v>22</x:v>
@@ -4548,34 +4530,34 @@
     </x:row>
     <x:row r="97" spans="1:13">
       <x:c r="A97" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B97" s="0" t="n">
-        <x:v>13342</x:v>
+        <x:v>4443</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F97" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G97" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H97" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I97" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J97" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="M97" s="0" t="s">
         <x:v>22</x:v>
@@ -4583,34 +4565,34 @@
     </x:row>
     <x:row r="98" spans="1:13">
       <x:c r="A98" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B98" s="0" t="n">
-        <x:v>4443</x:v>
+        <x:v>11670</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="D98" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E98" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F98" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G98" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H98" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I98" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J98" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="M98" s="0" t="s">
         <x:v>22</x:v>
@@ -4618,34 +4600,34 @@
     </x:row>
     <x:row r="99" spans="1:13">
       <x:c r="A99" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B99" s="0" t="n">
-        <x:v>11670</x:v>
+        <x:v>2749</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D99" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E99" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F99" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G99" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H99" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I99" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J99" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="M99" s="0" t="s">
         <x:v>22</x:v>
@@ -4653,34 +4635,34 @@
     </x:row>
     <x:row r="100" spans="1:13">
       <x:c r="A100" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="B100" s="0" t="n">
-        <x:v>2749</x:v>
+        <x:v>4862</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D100" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E100" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F100" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G100" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H100" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I100" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J100" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M100" s="0" t="s">
         <x:v>22</x:v>
@@ -4688,34 +4670,34 @@
     </x:row>
     <x:row r="101" spans="1:13">
       <x:c r="A101" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B101" s="0" t="n">
-        <x:v>4862</x:v>
+        <x:v>10105</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="D101" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E101" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F101" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G101" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H101" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I101" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J101" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="M101" s="0" t="s">
         <x:v>22</x:v>
@@ -4723,34 +4705,34 @@
     </x:row>
     <x:row r="102" spans="1:13">
       <x:c r="A102" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B102" s="0" t="n">
         <x:v>10105</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="D102" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E102" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F102" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G102" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H102" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I102" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J102" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="M102" s="0" t="s">
         <x:v>22</x:v>
